--- a/biology/Botanique/Souvenir_de_la_Malmaison/Souvenir_de_la_Malmaison.xlsx
+++ b/biology/Botanique/Souvenir_de_la_Malmaison/Souvenir_de_la_Malmaison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Souvenir de la Malmaison est un rosier de type Bourbon qui a été créé en 1843 par le rosiériste français Jean Béluze. Il a été nommé d'après le nom de la roseraie de Joséphine de Beauharnais au château de Malmaison. Ce rosier est aussi connu sous d'autres noms : 'Queen of Beauty' et 'Flagrance'. 
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">'Souvenir de la Malmaison' est un buisson à floraison abondante, qui s'étale durablement de juin à l'automne, particulièrement en
 septembre, produisant de nombreuses fleurs odorantes, très doubles, rose pâle, très grandes (10 cm de diamètre environ). Seul inconvénient, ces fleurs résistent mal à l'humidité.
-Tchekhov avait planté des roses 'Souvenir de la Malmaison' dans le jardin de sa villa de Yalta en Crimée[1].
+Tchekhov avait planté des roses 'Souvenir de la Malmaison' dans le jardin de sa villa de Yalta en Crimée.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un sport grimpant, 'Climb. Souvenir de la Malmaison' a été obtenu par Bennett en 1893. Il a lui aussi deux floraisons principales, un peu moins abondantes que celles de la forme buissonnante[2].
-Un autre sport date de 1888, c'est 'Kronprinzessin Viktoria' à très belle floraison odorante, blanc ivoire sur un buisson d'environ 1 m de haut[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un sport grimpant, 'Climb. Souvenir de la Malmaison' a été obtenu par Bennett en 1893. Il a lui aussi deux floraisons principales, un peu moins abondantes que celles de la forme buissonnante.
+Un autre sport date de 1888, c'est 'Kronprinzessin Viktoria' à très belle floraison odorante, blanc ivoire sur un buisson d'environ 1 m de haut.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier fait partie du Old Rose Hall of Fame, une liste de dix rosiers anciens reconnus comme d'importance historique par la fédération mondiale des sociétés de roses[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier fait partie du Old Rose Hall of Fame, une liste de dix rosiers anciens reconnus comme d'importance historique par la fédération mondiale des sociétés de roses.
 </t>
         </is>
       </c>
